--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_3_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_3_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2047135024844161</v>
+        <v>0.1157817893729485</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2047135024844161</v>
+        <v>0.1157817893729485</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.699270948281145</v>
+        <v>5.452724255358977</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.141449542816571, 14.539991439378863]</t>
+          <t>[-1.1144433494412471, 12.019891860159202]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2007598789763645</v>
+        <v>0.1014028659768509</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2007598789763645</v>
+        <v>0.1014028659768509</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.157263359880925</v>
+        <v>-1.78621083807708</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.012684910891468, 1.698158191129619]</t>
+          <t>[-3.5095269283345454, -0.06289474781961513]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4186353616118326</v>
+        <v>0.04252499358494655</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4186353616118326</v>
+        <v>0.04252499358494655</v>
       </c>
       <c r="T2" t="n">
-        <v>12.18055771839004</v>
+        <v>10.50311752473839</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.520232671340601, 16.840882765439474]</t>
+          <t>[6.773234939017918, 14.233000110458867]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.798614820693658e-06</v>
+        <v>9.569624332961268e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.798614820693658e-06</v>
+        <v>9.569624332961268e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.75747747747759</v>
+        <v>7.271991991992152</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.981081081081244</v>
+        <v>0.2560560560560585</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.49603603603642</v>
+        <v>14.28792792792825</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4890618172417475</v>
+        <v>0.1572201130461048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4890618172417475</v>
+        <v>0.1572201130461048</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.957390935857676</v>
+        <v>5.861711800032602</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.938830811720205, 12.853612683435557]</t>
+          <t>[-1.4025553727524027, 13.125978972817606]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3750459173505583</v>
+        <v>0.1110982224188961</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3750459173505583</v>
+        <v>0.1110982224188961</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.213895123250465</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.346053564667316, 0.9182633181663862]</t>
+          <t>[-3.3648690083494275, 0.19497371824080734]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1614526173785065</v>
+        <v>0.07961837489576928</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1614526173785065</v>
+        <v>0.07961837489576928</v>
       </c>
       <c r="T3" t="n">
-        <v>13.86586847063567</v>
+        <v>11.81669927438069</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.22797039872276, 18.503766542548572]</t>
+          <t>[7.430684354520437, 16.202714194240933]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.900724163090729e-07</v>
+        <v>2.198436129585701e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.900724163090729e-07</v>
+        <v>2.198436129585701e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>9.10126126126147</v>
+        <v>6.452612612612754</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.774954954955044</v>
+        <v>-0.7937737737737889</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.97747747747798</v>
+        <v>13.6989989989993</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.147797656937823</v>
+        <v>0.13420458313557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.147797656937823</v>
+        <v>0.13420458313557</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.248773400427552</v>
+        <v>6.410234142349709</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.9396731442702393, 12.437219945125344]</t>
+          <t>[-1.809246819740916, 14.629715104440333]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.148348499926781</v>
+        <v>0.1232428480198491</v>
       </c>
       <c r="O4" t="n">
-        <v>0.148348499926781</v>
+        <v>0.1232428480198491</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.188737224122619</v>
+        <v>-2.390000417145388</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.213974594246123, 0.8365001460008852]</t>
+          <t>[-5.5284483333442, 0.748447499053424]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1520075152569638</v>
+        <v>0.132083595019246</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1520075152569638</v>
+        <v>0.132083595019246</v>
       </c>
       <c r="T4" t="n">
-        <v>10.58461772949131</v>
+        <v>11.46323824291125</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.865082247695438, 14.30415321128719]</t>
+          <t>[7.086529700820293, 15.839946785002212]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.804700306035528e-07</v>
+        <v>3.660264013882752e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>7.804700306035528e-07</v>
+        <v>3.660264013882752e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>8.997837837838048</v>
+        <v>9.730130130130343</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.438828828828905</v>
+        <v>-3.047067067067132</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.434504504505</v>
+        <v>22.50732732732782</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07477429744724839</v>
+        <v>0.1177530167561075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07477429744724839</v>
+        <v>0.1177530167561075</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.637087993632312</v>
+        <v>6.202666273900437</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.6828040717003034, 13.956980058964927]</t>
+          <t>[-1.8237831986741124, 14.229115746474987]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07445503618718474</v>
+        <v>0.1266056117123027</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07445503618718474</v>
+        <v>0.1266056117123027</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.490632013656773</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.308316715975547, 0.3270526886620013]</t>
+          <t>[-5.497000959434392, 0.69184222601577]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08177530308449166</v>
+        <v>0.1248715471648791</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08177530308449166</v>
+        <v>0.1248715471648791</v>
       </c>
       <c r="T5" t="n">
-        <v>11.9475663849379</v>
+        <v>12.64074285394075</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.026481539108511, 15.868651230767282]</t>
+          <t>[8.54368752268011, 16.7377981852014]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.954396389169943e-07</v>
+        <v>1.500657600406186e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.954396389169943e-07</v>
+        <v>1.500657600406186e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>10.23891891891916</v>
+        <v>9.781341341341555</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.344504504504537</v>
+        <v>-2.816616616616676</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.82234234234285</v>
+        <v>22.37929929929979</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5431825953732572</v>
+        <v>0.268287656676885</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5431825953732572</v>
+        <v>0.268287656676885</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.519943550652839</v>
+        <v>5.582556814508588</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.436392856316623, 11.476279957622301]</t>
+          <t>[-3.2535655830543755, 14.418679212071552]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3776395121561746</v>
+        <v>0.2097361649686973</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3776395121561746</v>
+        <v>0.2097361649686973</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.031526844905466</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-6.144816861976433, 0.08176317216550011]</t>
+          <t>[-5.930974719389739, 0.19497371824080734]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05606040859401396</v>
+        <v>0.06577356574432192</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05606040859401396</v>
+        <v>0.06577356574432192</v>
       </c>
       <c r="T6" t="n">
-        <v>12.11244318465953</v>
+        <v>14.30125256674555</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.771145364483701, 16.453741004835358]</t>
+          <t>[9.632363275122696, 18.97014185836841]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.142517723318193e-06</v>
+        <v>1.749217770630196e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.142517723318193e-06</v>
+        <v>1.749217770630196e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>12.46252252252281</v>
+        <v>11.67615615615641</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3361261261261337</v>
+        <v>-0.7937737737737898</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.26117117117176</v>
+        <v>24.14608608608661</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1248532328871435</v>
+        <v>0.5251413648232488</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1248532328871435</v>
+        <v>0.5251413648232488</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.78415554856085</v>
+        <v>3.82352822157924</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.28271193224899, 12.85102302937069]</t>
+          <t>[-4.611315910635126, 12.258372353793606]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1062109155794844</v>
+        <v>0.3661102690036615</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1062109155794844</v>
+        <v>0.3661102690036615</v>
       </c>
       <c r="P7" t="n">
-        <v>2.811395227536812</v>
+        <v>3.113290017070967</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.018868424345884982, 5.603922030727739]</t>
+          <t>[-0.018868424345884094, 6.245448458487817]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.04853576104209956</v>
+        <v>0.05133758800501997</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04853576104209956</v>
+        <v>0.05133758800501997</v>
       </c>
       <c r="T7" t="n">
-        <v>9.495054950488214</v>
+        <v>12.59292861778707</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.592839256712876, 13.397270644263552]</t>
+          <t>[7.96377809001791, 17.222079145556226]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.278968839923955e-05</v>
+        <v>1.839248101376256e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.278968839923955e-05</v>
+        <v>1.839248101376256e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>14.27243243243276</v>
+        <v>12.90522522522551</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.792432432432497</v>
+        <v>0.1536336336336355</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.75243243243303</v>
+        <v>25.65681681681738</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1989133881527461</v>
+        <v>0.1819627992099713</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1989133881527461</v>
+        <v>0.1819627992099713</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.027918583415086</v>
+        <v>5.141976052727823</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.643049096190463, 12.698886263020635]</t>
+          <t>[-1.7702157061926584, 12.054167811648304]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1934644082327404</v>
+        <v>0.1410404850087579</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1934644082327404</v>
+        <v>0.1410404850087579</v>
       </c>
       <c r="P8" t="n">
-        <v>2.157289850212811</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, 5.245421968155931]</t>
+          <t>[-0.19497371824080822, 5.842922072442278]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1662965847645925</v>
+        <v>0.06603191151369869</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1662965847645925</v>
+        <v>0.06603191151369869</v>
       </c>
       <c r="T8" t="n">
-        <v>11.78446712638307</v>
+        <v>10.69633425103603</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.73073904062489, 15.838195212141244]</t>
+          <t>[6.851016908310621, 14.541651593761449]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.120800148361582e-07</v>
+        <v>1.210090899927962e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>5.120800148361582e-07</v>
+        <v>1.210090899927962e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>16.96144144144183</v>
+        <v>14.08308308308339</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.266216216216314</v>
+        <v>1.792392392392433</v>
       </c>
       <c r="Z8" t="n">
-        <v>29.65666666666736</v>
+        <v>26.37377377377435</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05057121607345894</v>
+        <v>0.1092483869639338</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05057121607345894</v>
+        <v>0.1092483869639338</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.657492821525139</v>
+        <v>6.801316395861196</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.6363015475351634, 15.951287190585441]</t>
+          <t>[-1.6012343136527392, 15.203867105375132]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06948985278027942</v>
+        <v>0.1100219293040221</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06948985278027942</v>
+        <v>0.1100219293040221</v>
       </c>
       <c r="P9" t="n">
-        <v>2.094395102393195</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 3.880605940470274]</t>
+          <t>[-0.38994743648161556, 4.754842935162931]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02258435765766009</v>
+        <v>0.09438002020196468</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02258435765766009</v>
+        <v>0.09438002020196468</v>
       </c>
       <c r="T9" t="n">
-        <v>13.4006375718019</v>
+        <v>12.09648467495298</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.922305896578749, 17.878969247025047]</t>
+          <t>[7.479071929538264, 16.7138974203677]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.848468323435327e-07</v>
+        <v>3.645212330871672e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>2.848468323435327e-07</v>
+        <v>3.645212330871672e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.2200000000004</v>
+        <v>16.69485485485522</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.87693693693717</v>
+        <v>6.222162162162292</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.56306306306364</v>
+        <v>27.16754754754814</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1187771376017546</v>
+        <v>0.3577985304465714</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1187771376017546</v>
+        <v>0.3577985304465714</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.654953952229061</v>
+        <v>4.618538163045288</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.0749947571727603, 15.384902661630882]</t>
+          <t>[-3.7731776320343773, 13.010253958124954]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1316929949120431</v>
+        <v>0.2735356235901527</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1316929949120431</v>
+        <v>0.2735356235901527</v>
       </c>
       <c r="P10" t="n">
-        <v>2.496921488438735</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.5723422051584999, 5.566185182035969]</t>
+          <t>[-1.3522370781217319, 4.861764006456276]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1082869222336864</v>
+        <v>0.2613416622375988</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1082869222336864</v>
+        <v>0.2613416622375988</v>
       </c>
       <c r="T10" t="n">
-        <v>12.81775523719166</v>
+        <v>11.95316981194749</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.322154881028924, 17.313355593354395]</t>
+          <t>[7.372668081531373, 16.533671542363606]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.516039179922274e-07</v>
+        <v>3.905466752440745e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>7.516039179922274e-07</v>
+        <v>3.905466752440745e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>15.05301301301329</v>
+        <v>17.65045045045073</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.850570570570623</v>
+        <v>5.540280280280371</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.25545545545596</v>
+        <v>29.76062062062109</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1331259119865156</v>
+        <v>0.3070242716676307</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1331259119865156</v>
+        <v>0.3070242716676307</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.121176598777916</v>
+        <v>4.695147894778658</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.7858128501732526, 14.028166047729085]</t>
+          <t>[-3.488165513765778, 12.878461303323093]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.125951858360934</v>
+        <v>0.2539499333735036</v>
       </c>
       <c r="O11" t="n">
-        <v>0.125951858360934</v>
+        <v>0.2539499333735036</v>
       </c>
       <c r="P11" t="n">
         <v>1.893131909370426</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.23900004171453837, 4.025263860455389]</t>
+          <t>[-1.1635528346628874, 4.949816653403738]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.08045604821326036</v>
+        <v>0.2186972400077964</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08045604821326036</v>
+        <v>0.2186972400077964</v>
       </c>
       <c r="T11" t="n">
-        <v>12.81905300848814</v>
+        <v>11.565130006297</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.487740774644976, 17.15036524233131]</t>
+          <t>[7.231076164461951, 15.899183848132058]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.567669106807614e-07</v>
+        <v>2.619351873400788e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>3.567669106807614e-07</v>
+        <v>2.619351873400788e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>17.45349349349382</v>
+        <v>17.1111311311314</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.976796796796968</v>
+        <v>5.197077077077159</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.93019019019067</v>
+        <v>29.02518518518565</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3404779439332664</v>
+        <v>0.1666230713862933</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3404779439332664</v>
+        <v>0.1666230713862933</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.265498395326999</v>
+        <v>4.76147319936433</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.5248399548199743, 12.055836745473972]</t>
+          <t>[-1.586641859263331, 11.109588257991991]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2759786879616961</v>
+        <v>0.1378556552858865</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2759786879616961</v>
+        <v>0.1378556552858865</v>
       </c>
       <c r="P12" t="n">
-        <v>1.867974010242579</v>
+        <v>1.427710775505272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 4.981264027313546]</t>
+          <t>[-0.5346053564667308, 3.3900269074772744]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2331817098504823</v>
+        <v>0.1497674449345925</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2331817098504823</v>
+        <v>0.1497674449345925</v>
       </c>
       <c r="T12" t="n">
-        <v>10.72968743405809</v>
+        <v>10.96385738860253</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.5554164102085615, 14.90395845790761]</t>
+          <t>[7.423330944949866, 14.504383832255188]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.089375968436727e-06</v>
+        <v>1.387674177788512e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>5.089375968436727e-06</v>
+        <v>1.387674177788512e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>17.55351351351384</v>
+        <v>18.9252052052055</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.176036036036134</v>
+        <v>11.27667667667686</v>
       </c>
       <c r="Z12" t="n">
-        <v>29.93099099099155</v>
+        <v>26.57373373373415</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1771651386699877</v>
+        <v>0.5177842674448012</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1771651386699877</v>
+        <v>0.5177842674448012</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.5224681223796</v>
+        <v>3.406911097043261</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.9537560671193166, 10.998692311878516]</t>
+          <t>[-4.369909575612592, 11.183731769699113]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.166448443307297</v>
+        <v>0.3822772022444714</v>
       </c>
       <c r="O13" t="n">
-        <v>0.166448443307297</v>
+        <v>0.3822772022444714</v>
       </c>
       <c r="P13" t="n">
-        <v>2.484342538874811</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.6289474781961548, 5.597632555945777]</t>
+          <t>[-1.4402897250691948, 4.798869258636661]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1150024597574162</v>
+        <v>0.284048816869114</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1150024597574162</v>
+        <v>0.284048816869114</v>
       </c>
       <c r="T13" t="n">
-        <v>9.440007625769086</v>
+        <v>10.56392820751485</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.034102496762464, 12.845912754775707]</t>
+          <t>[6.325242971978981, 14.802613443050717]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.295673099921402e-06</v>
+        <v>8.615367208753e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.295673099921402e-06</v>
+        <v>8.615367208753e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.1030230230233</v>
+        <v>17.94462462462491</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.725545545545597</v>
+        <v>5.785425425425519</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.48050050050101</v>
+        <v>30.1038238238243</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.189706059680028</v>
+        <v>0.1995511318039618</v>
       </c>
       <c r="I14" t="n">
-        <v>0.189706059680028</v>
+        <v>0.1995511318039618</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.312903404009104</v>
+        <v>5.063140520518902</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-2.4995712318886554, 13.125378039906863]</t>
+          <t>[-1.60941016475347, 11.735691205791275]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1775773813370565</v>
+        <v>0.1334363569551942</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1775773813370565</v>
+        <v>0.1334363569551942</v>
       </c>
       <c r="P14" t="n">
-        <v>1.150973885098963</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.9748950815359256, 4.276842851733851]</t>
+          <t>[-1.3459476033397717, 4.553579742140162]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.462175836081776</v>
+        <v>0.2793047289414103</v>
       </c>
       <c r="S14" t="n">
-        <v>0.462175836081776</v>
+        <v>0.2793047289414103</v>
       </c>
       <c r="T14" t="n">
-        <v>10.20762997598815</v>
+        <v>10.36393412376891</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.10387817222011, 14.311381779756186]</t>
+          <t>[6.379080917973308, 14.348787329564512]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.901920264259289e-06</v>
+        <v>4.143713224991075e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>8.901920264259289e-06</v>
+        <v>4.143713224991075e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>20.40408408408447</v>
+        <v>18.23879879879909</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.976596596596751</v>
+        <v>6.741491491491594</v>
       </c>
       <c r="Z14" t="n">
-        <v>32.83157157157218</v>
+        <v>29.73610610610658</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3180206001081587</v>
+        <v>0.3398212680228723</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3180206001081587</v>
+        <v>0.3398212680228723</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.044903896006799</v>
+        <v>4.681261127126723</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.9357205025052053, 11.025528294518804]</t>
+          <t>[-3.2955622437309184, 12.658084497984365]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2493307014210497</v>
+        <v>0.2434172093723654</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2493307014210497</v>
+        <v>0.2434172093723654</v>
       </c>
       <c r="P15" t="n">
-        <v>1.327079178993886</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, 4.452948145628774]</t>
+          <t>[-1.7233160902574642, 4.528421843012314]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3970355014914926</v>
+        <v>0.3709605180110858</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3970355014914926</v>
+        <v>0.3709605180110858</v>
       </c>
       <c r="T15" t="n">
-        <v>9.214121327851451</v>
+        <v>12.48638492784579</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.401632833296926, 13.026609822405977]</t>
+          <t>[7.968698169207118, 17.004071686484455]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.42702437038178e-05</v>
+        <v>1.366349223985708e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.42702437038178e-05</v>
+        <v>1.366349223985708e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>19.70394394394431</v>
+        <v>19.02326326326357</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.276456456456598</v>
+        <v>6.839549549549657</v>
       </c>
       <c r="Z15" t="n">
-        <v>32.13143143143203</v>
+        <v>31.20697697697747</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_3_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_per_day_fixed_period_3_sawtooth_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1157817893729485</v>
+        <v>0.2101766226332569</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1157817893729485</v>
+        <v>0.2101766226332569</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.452724255358977</v>
+        <v>4.630721524259861</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.1144433494412471, 12.019891860159202]</t>
+          <t>[-1.909119045897416, 11.170562094417138]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1014028659768509</v>
+        <v>0.1607278672017232</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1014028659768509</v>
+        <v>0.1607278672017232</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.78621083807708</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.5095269283345454, -0.06289474781961513]</t>
+          <t>[-4.415211296937006, 1.2704739059562318]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04252499358494655</v>
+        <v>0.2711960653923289</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04252499358494655</v>
+        <v>0.2711960653923289</v>
       </c>
       <c r="T2" t="n">
-        <v>10.50311752473839</v>
+        <v>12.95017355503593</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.773234939017918, 14.233000110458867]</t>
+          <t>[9.171993465201872, 16.72835364486999]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.569624332961268e-07</v>
+        <v>1.416474315618643e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>9.569624332961268e-07</v>
+        <v>1.416474315618643e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>7.271991991992152</v>
+        <v>6.378878878879014</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2560560560560585</v>
+        <v>-5.154134134134242</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.28792792792825</v>
+        <v>17.91189189189227</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1572201130461048</v>
+        <v>0.07606798517002822</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1572201130461048</v>
+        <v>0.07606798517002822</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.861711800032602</v>
+        <v>6.254463888560468</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.4025553727524027, 13.125978972817606]</t>
+          <t>[-1.0633938021635512, 13.572321579284488]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1110982224188961</v>
+        <v>0.09204287928312049</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1110982224188961</v>
+        <v>0.09204287928312049</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.58494764505431</v>
+        <v>-2.440316215401081</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.3648690083494275, 0.19497371824080734]</t>
+          <t>[-5.264290392501816, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.07961837489576928</v>
+        <v>0.08861101913478109</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07961837489576928</v>
+        <v>0.08861101913478109</v>
       </c>
       <c r="T3" t="n">
-        <v>11.81669927438069</v>
+        <v>9.965757872939243</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.430684354520437, 16.202714194240933]</t>
+          <t>[6.2233368887701594, 13.708178857108326]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.198436129585701e-06</v>
+        <v>2.719425172159617e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.198436129585701e-06</v>
+        <v>2.719425172159617e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>6.452612612612754</v>
+        <v>9.900020020020232</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.7937737737737889</v>
+        <v>-1.556446446446481</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.6989989989993</v>
+        <v>21.35648648648694</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13420458313557</v>
+        <v>0.3192260336110393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13420458313557</v>
+        <v>0.3192260336110393</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.410234142349709</v>
+        <v>4.525752587254939</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.809246819740916, 14.629715104440333]</t>
+          <t>[-3.298120215363477, 12.349625389873355]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1232428480198491</v>
+        <v>0.2501309431821261</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1232428480198491</v>
+        <v>0.2501309431821261</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.390000417145388</v>
+        <v>-2.213895123250465</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.5284483333442, 0.748447499053424]</t>
+          <t>[-5.352343039449277, 0.9245527929483472]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.132083595019246</v>
+        <v>0.162276087860852</v>
       </c>
       <c r="S4" t="n">
-        <v>0.132083595019246</v>
+        <v>0.162276087860852</v>
       </c>
       <c r="T4" t="n">
-        <v>11.46323824291125</v>
+        <v>11.7409240858378</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.086529700820293, 15.839946785002212]</t>
+          <t>[7.551035871181805, 15.930812300493796]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.660264013882752e-06</v>
+        <v>1.051327368717381e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>3.660264013882752e-06</v>
+        <v>1.051327368717381e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.730130130130343</v>
+        <v>8.981461461461652</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.047067067067132</v>
+        <v>-3.750780780780863</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.50732732732782</v>
+        <v>21.71370370370417</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1177530167561075</v>
+        <v>0.08275273729526578</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1177530167561075</v>
+        <v>0.08275273729526578</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.202666273900437</v>
+        <v>8.008296495937744</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.8237831986741124, 14.229115746474987]</t>
+          <t>[-0.8933650258084214, 16.90995801768391]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1266056117123027</v>
+        <v>0.07666706879672502</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1266056117123027</v>
+        <v>0.07666706879672502</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.402579366709311</v>
+        <v>-2.767368904063082</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.497000959434392, 0.69184222601577]</t>
+          <t>[-4.566158691704084, -0.9685791164220792]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1248715471648791</v>
+        <v>0.00334632894151432</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1248715471648791</v>
+        <v>0.00334632894151432</v>
       </c>
       <c r="T5" t="n">
-        <v>12.64074285394075</v>
+        <v>12.44705614304293</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.54368752268011, 16.7377981852014]</t>
+          <t>[7.6310592395512975, 17.26305304653456]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.500657600406186e-07</v>
+        <v>4.627116858557656e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.500657600406186e-07</v>
+        <v>4.627116858557656e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>9.781341341341555</v>
+        <v>11.22682682682707</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.816616616616676</v>
+        <v>3.929389389389476</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.37929929929979</v>
+        <v>18.52426426426466</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.268287656676885</v>
+        <v>0.4416691326383183</v>
       </c>
       <c r="I6" t="n">
-        <v>0.268287656676885</v>
+        <v>0.4416691326383183</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.582556814508588</v>
+        <v>4.362788258342121</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.2535655830543755, 14.418679212071552]</t>
+          <t>[-4.210702973104407, 12.93627948978865]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2097361649686973</v>
+        <v>0.3108811004937204</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2097361649686973</v>
+        <v>0.3108811004937204</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.868000500574466</v>
+        <v>-2.84284260144662</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.930974719389739, 0.19497371824080734]</t>
+          <t>[-5.937264194171702, 0.2515789912784623]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.06577356574432192</v>
+        <v>0.07083429570601729</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06577356574432192</v>
+        <v>0.07083429570601729</v>
       </c>
       <c r="T6" t="n">
-        <v>14.30125256674555</v>
+        <v>12.39750994497375</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.632363275122696, 18.97014185836841]</t>
+          <t>[7.732034628452564, 17.062985261494934]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.749217770630196e-07</v>
+        <v>2.825486216107009e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.749217770630196e-07</v>
+        <v>2.825486216107009e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.67615615615641</v>
+        <v>11.53301301301326</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.7937737737737898</v>
+        <v>-1.020620620620644</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.14608608608661</v>
+        <v>24.08664664664716</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5251413648232488</v>
+        <v>0.236262119733748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5251413648232488</v>
+        <v>0.236262119733748</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.82352822157924</v>
+        <v>5.244540216071868</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.611315910635126, 12.258372353793606]</t>
+          <t>[-2.7745687113862916, 13.263649143530028]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3661102690036615</v>
+        <v>0.194428171519794</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3661102690036615</v>
+        <v>0.194428171519794</v>
       </c>
       <c r="P7" t="n">
-        <v>3.113290017070967</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.018868424345884094, 6.245448458487817]</t>
+          <t>[-5.704553627239124, 0.14465791998511612]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.05133758800501997</v>
+        <v>0.06192976736373246</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05133758800501997</v>
+        <v>0.06192976736373246</v>
       </c>
       <c r="T7" t="n">
-        <v>12.59292861778707</v>
+        <v>9.720023415163379</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[7.96377809001791, 17.222079145556226]</t>
+          <t>[5.523824579798324, 13.916222250528433]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.839248101376256e-06</v>
+        <v>2.777280176702313e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>1.839248101376256e-06</v>
+        <v>2.777280176702313e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>12.90522522522551</v>
+        <v>11.2778578578581</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1536336336336355</v>
+        <v>-0.5868568568568708</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.65681681681738</v>
+        <v>23.14257257257307</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1819627992099713</v>
+        <v>0.4435657234614959</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1819627992099713</v>
+        <v>0.4435657234614959</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.141976052727823</v>
+        <v>3.873592747032694</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.7702157061926584, 12.054167811648304]</t>
+          <t>[-4.384213428312293, 12.13139892237768]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1410404850087579</v>
+        <v>0.3498162447143063</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1410404850087579</v>
+        <v>0.3498162447143063</v>
       </c>
       <c r="P8" t="n">
-        <v>2.823974177100735</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.19497371824080822, 5.842922072442278]</t>
+          <t>[-0.4025263860455386, 5.798895748968547]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.06603191151369869</v>
+        <v>0.08647552689471172</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06603191151369869</v>
+        <v>0.08647552689471172</v>
       </c>
       <c r="T8" t="n">
-        <v>10.69633425103603</v>
+        <v>11.42035099816586</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.851016908310621, 14.541651593761449]</t>
+          <t>[7.149148353767883, 15.691553642563838]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.210090899927962e-06</v>
+        <v>2.525425713661988e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.210090899927962e-06</v>
+        <v>2.525425713661988e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>14.08308308308339</v>
+        <v>14.54384384384416</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.792392392392433</v>
+        <v>1.964694694694739</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.37377377377435</v>
+        <v>27.12299299299357</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1092483869639338</v>
+        <v>0.471588384794547</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1092483869639338</v>
+        <v>0.471588384794547</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.801316395861196</v>
+        <v>3.713192595278684</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.6012343136527392, 15.203867105375132]</t>
+          <t>[-4.1544260888121, 11.580811279369467]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1100219293040221</v>
+        <v>0.3468984046239281</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1100219293040221</v>
+        <v>0.3468984046239281</v>
       </c>
       <c r="P9" t="n">
-        <v>2.182447749340658</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.38994743648161556, 4.754842935162931]</t>
+          <t>[-1.591237119836272, 4.622763964741738]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.09438002020196468</v>
+        <v>0.3310634051821868</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09438002020196468</v>
+        <v>0.3310634051821868</v>
       </c>
       <c r="T9" t="n">
-        <v>12.09648467495298</v>
+        <v>12.52583334195981</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.479071929538264, 16.7138974203677]</t>
+          <t>[8.127255896191507, 16.924410787728114]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.645212330871672e-06</v>
+        <v>7.69741554274006e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>3.645212330871672e-06</v>
+        <v>7.69741554274006e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>16.69485485485522</v>
+        <v>19.34076076076117</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.222162162162292</v>
+        <v>6.736096096096238</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.16754754754814</v>
+        <v>31.94542542542611</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3577985304465714</v>
+        <v>0.05997367751482063</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3577985304465714</v>
+        <v>0.05997367751482063</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.618538163045288</v>
+        <v>6.657609713938552</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.7731776320343773, 13.010253958124954]</t>
+          <t>[0.19546675355238285, 13.11975267432472]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2735356235901527</v>
+        <v>0.04373095956238293</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2735356235901527</v>
+        <v>0.04373095956238293</v>
       </c>
       <c r="P10" t="n">
-        <v>1.754763464167272</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3522370781217319, 4.861764006456276]</t>
+          <t>[0.2956053147521924, 3.1887637144545042]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2613416622375988</v>
+        <v>0.01935292944138589</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2613416622375988</v>
+        <v>0.01935292944138589</v>
       </c>
       <c r="T10" t="n">
-        <v>11.95316981194749</v>
+        <v>11.97432618607342</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.372668081531373, 16.533671542363606]</t>
+          <t>[8.088141772462476, 15.860510599684355]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.905466752440745e-06</v>
+        <v>1.543356240585325e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.905466752440745e-06</v>
+        <v>1.543356240585325e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>17.65045045045073</v>
+        <v>17.51157157157182</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.540280280280371</v>
+        <v>11.93309309309327</v>
       </c>
       <c r="Z10" t="n">
-        <v>29.76062062062109</v>
+        <v>23.09005005005038</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3070242716676307</v>
+        <v>0.05145685756991625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3070242716676307</v>
+        <v>0.05145685756991625</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.695147894778658</v>
+        <v>7.440292383146074</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.488165513765778, 12.878461303323093]</t>
+          <t>[-0.3718921625956, 15.252476928887749]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2539499333735036</v>
+        <v>0.06144100675125386</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2539499333735036</v>
+        <v>0.06144100675125386</v>
       </c>
       <c r="P11" t="n">
-        <v>1.893131909370426</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.1635528346628874, 4.949816653403738]</t>
+          <t>[0.35850006257180844, 3.5283953526804286]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2186972400077964</v>
+        <v>0.01738244460538985</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2186972400077964</v>
+        <v>0.01738244460538985</v>
       </c>
       <c r="T11" t="n">
-        <v>11.565130006297</v>
+        <v>12.41798472048302</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.231076164461951, 15.899183848132058]</t>
+          <t>[8.197931426378194, 16.638038014587853]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.619351873400788e-06</v>
+        <v>4.010594558678804e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>2.619351873400788e-06</v>
+        <v>4.010594558678804e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>17.1111311311314</v>
+        <v>16.73543543543568</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.197077077077159</v>
+        <v>10.62336336336352</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.02518518518565</v>
+        <v>22.84750750750784</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1666230713862933</v>
+        <v>0.2357382167624069</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1666230713862933</v>
+        <v>0.2357382167624069</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.76147319936433</v>
+        <v>5.216965014098853</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.586641859263331, 11.109588257991991]</t>
+          <t>[-2.6079365624671595, 13.041866590664865]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1378556552858865</v>
+        <v>0.1860616484791788</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1378556552858865</v>
+        <v>0.1860616484791788</v>
       </c>
       <c r="P12" t="n">
-        <v>1.427710775505272</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.5346053564667308, 3.3900269074772744]</t>
+          <t>[-0.9497106920761933, 4.861764006456276]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1497674449345925</v>
+        <v>0.1819236367182384</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1497674449345925</v>
+        <v>0.1819236367182384</v>
       </c>
       <c r="T12" t="n">
-        <v>10.96385738860253</v>
+        <v>10.81884526497701</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.423330944949866, 14.504383832255188]</t>
+          <t>[6.501171912662968, 15.136518617291053]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.387674177788512e-07</v>
+        <v>7.871417992522112e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.387674177788512e-07</v>
+        <v>7.871417992522112e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>18.9252052052055</v>
+        <v>16.68692692692716</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.27667667667686</v>
+        <v>5.481461461461537</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.57373373373415</v>
+        <v>27.89239239239279</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5177842674448012</v>
+        <v>0.04575337303188576</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5177842674448012</v>
+        <v>0.04575337303188576</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.406911097043261</v>
+        <v>8.031877335273418</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-4.369909575612592, 11.183731769699113]</t>
+          <t>[0.6575191712116748, 15.40623549933516]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3822772022444714</v>
+        <v>0.03346450520397215</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3822772022444714</v>
+        <v>0.03346450520397215</v>
       </c>
       <c r="P13" t="n">
-        <v>1.679289766783733</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.4402897250691948, 4.798869258636661]</t>
+          <t>[0.3333421634439624, 2.8742899753564277]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.284048816869114</v>
+        <v>0.01451476049688272</v>
       </c>
       <c r="S13" t="n">
-        <v>0.284048816869114</v>
+        <v>0.01451476049688272</v>
       </c>
       <c r="T13" t="n">
-        <v>10.56392820751485</v>
+        <v>11.98393061241608</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.325242971978981, 14.802613443050717]</t>
+          <t>[7.516532229851542, 16.451328994980617]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.615367208753e-06</v>
+        <v>2.379832254151282e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>8.615367208753e-06</v>
+        <v>2.379832254151282e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>17.94462462462491</v>
+        <v>18.04516516516542</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.785425425425519</v>
+        <v>13.14580580580599</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.1038238238243</v>
+        <v>22.94452452452485</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1995511318039618</v>
+        <v>0.07720310212045944</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1995511318039618</v>
+        <v>0.07720310212045944</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.063140520518902</v>
+        <v>6.113772781025981</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.60941016475347, 11.735691205791275]</t>
+          <t>[-0.35630106657322713, 12.583846628625189]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1334363569551942</v>
+        <v>0.06342466061802021</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1334363569551942</v>
+        <v>0.06342466061802021</v>
       </c>
       <c r="P14" t="n">
-        <v>1.603816069400195</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.3459476033397717, 4.553579742140162]</t>
+          <t>[-0.16981581911296217, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2793047289414103</v>
+        <v>0.07939992972079213</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2793047289414103</v>
+        <v>0.07939992972079213</v>
       </c>
       <c r="T14" t="n">
-        <v>10.36393412376891</v>
+        <v>11.74519424064623</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.379080917973308, 14.348787329564512]</t>
+          <t>[7.992065215962075, 15.498323265330388]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.143713224991075e-06</v>
+        <v>1.106968721131807e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>4.143713224991075e-06</v>
+        <v>1.106968721131807e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>18.23879879879909</v>
+        <v>18.86980980981008</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.741491491491594</v>
+        <v>12.85475475475494</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.73610610610658</v>
+        <v>24.88486486486523</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3398212680228723</v>
+        <v>0.2513813943824175</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3398212680228723</v>
+        <v>0.2513813943824175</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.681261127126723</v>
+        <v>5.267235888191939</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-3.2955622437309184, 12.658084497984365]</t>
+          <t>[-2.67926906786799, 13.213740844251868]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2434172093723654</v>
+        <v>0.1885841051179811</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2434172093723654</v>
+        <v>0.1885841051179811</v>
       </c>
       <c r="P15" t="n">
-        <v>1.402552876377425</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.7233160902574642, 4.528421843012314]</t>
+          <t>[-1.1572633598809245, 4.842895582110391]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.3709605180110858</v>
+        <v>0.2224395726241195</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3709605180110858</v>
+        <v>0.2224395726241195</v>
       </c>
       <c r="T15" t="n">
-        <v>12.48638492784579</v>
+        <v>11.05337062273514</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.968698169207118, 17.004071686484455]</t>
+          <t>[6.5905358756124155, 15.516205369857866]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.366349223985708e-06</v>
+        <v>9.559663133762442e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.366349223985708e-06</v>
+        <v>9.559663133762442e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>19.02326326326357</v>
+        <v>17.12350350350375</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.839549549549657</v>
+        <v>5.554224224224305</v>
       </c>
       <c r="Z15" t="n">
-        <v>31.20697697697747</v>
+        <v>28.69278278278319</v>
       </c>
     </row>
   </sheetData>
